--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\サンプル成果物\画面設計書関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（rogin.php）" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="145">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -1091,6 +1091,769 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が0の場合</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文がありません等と表示されているか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量チェック１</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が1つ(商品名に間違いがなく）で、数量が1と表示されており、金額に間違いがないか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は１つ
+数量は1</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が1と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="5">
+      <t>ゴウケイチュウモンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量チェック２</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が1つ(商品名に間違いがなく）で、数量が2と表示されており、金額は商品の金額×2になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は１つ
+数量は２</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が2と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量チェック３</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が1つ(商品名に間違いがなく）で、数量が3と表示されており、金額は商品の金額×3になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は１つ
+数量は３</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が3と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="5">
+      <t>ゴウケイチュウモンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量チェック４</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が1つ(商品名に間違いがなく)で、数量が4と表示されており、金額は商品の金額×4になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は１つ
+数量は４</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が4と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量チェック５</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が1つ(商品名に間違いがなく）で、数量が5と表示されており、金額は商品の金額×5になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は１つ
+数量は５</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が5と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせチェック１</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が2つ(商品名に間違いがなく）で、数量は2つとも1と表示されており、各商品の金額に間違いはないか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>カクショウヒン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は２つ
+数量は1</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせチェック２</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が2つ(商品名に間違いがなく）で、数量がAは1、Bは3と表示されており、金額はそれぞれ金額×数量になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は2つ
+数量はAは1、Bは３</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせチェック３</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が3つ(商品名に間違いがなく）で、全て数量が5と表示されており、金額は商品の金額×5になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>串もの・飲み物・サイドメニューから一つずつ選択
+商品は３つ
+数量は５</t>
+    <rPh sb="0" eb="1">
+      <t>クシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が15と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせチェック４</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が3つ(商品名に間違いがなく）で、数量がAは2、Bは4、Cは5と表示されており、金額はそれぞれ金額×数量になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>串もの・飲み物・サイドメニューから一つずつ選択
+商品は３つ
+数量はAは２、Bは４、Cは５</t>
+    <rPh sb="0" eb="1">
+      <t>クシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が11と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="5">
+      <t>ゴウケイチュウモンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせチェック５</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が6つ(商品名に間違いがなく)、数量がAとBは3、Cは1、Dは5、Eは2、Fは4と表示されており、金額はそれぞれ金額×数量になっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品は6つ
+数量はAとBは３、Cは１、Dは５、Eは２、Fは４</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が18と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①商品が1つから２つになっている
+②追加された商品の数量が5と表示されており、金額は×5になっているか</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上の記述が確認でき次第、メニュー画面に戻り追加注文して履歴の確認
+追加する商品の数量は５</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数が6と表示されており、合計金額に間違いがないか</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールバーチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を8つ以上注文した時に、テーブルにスクロールバーが表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4676,7 +5439,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4835,7 +5598,9 @@
       <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
@@ -5300,8 +6065,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7774,8 +8539,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7932,8 +8697,12 @@
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -7944,13 +8713,19 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -7964,8 +8739,12 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -7976,13 +8755,19 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -7996,8 +8781,12 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -8008,13 +8797,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="10"/>
@@ -8028,8 +8823,12 @@
       <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -8040,13 +8839,19 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
@@ -8060,8 +8865,12 @@
       <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -8072,13 +8881,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -8092,9 +8907,13 @@
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="10"/>
@@ -8110,7 +8929,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="10"/>
@@ -8120,13 +8939,19 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
@@ -8140,9 +8965,13 @@
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="12"/>
@@ -8152,13 +8981,19 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
@@ -8167,9 +9002,13 @@
       <c r="A25" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
@@ -8179,13 +9018,19 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="10"/>
@@ -8199,9 +9044,13 @@
       <c r="A27" s="9">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="10"/>
@@ -8211,13 +9060,19 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
@@ -8226,20 +9081,30 @@
       <c r="A29" s="9">
         <v>26</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>27</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
@@ -8248,8 +9113,12 @@
       <c r="A31" s="9">
         <v>28</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -8266,13 +9135,19 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>30</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
@@ -8281,20 +9156,30 @@
       <c r="A34" s="9">
         <v>31</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>32</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
@@ -8303,8 +9188,12 @@
       <c r="A36" s="9">
         <v>33</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -8315,18 +9204,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>35</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430"/>
   </bookViews>
   <sheets>
-    <sheet name="ログイン画面（rogin.php）" sheetId="3" r:id="rId1"/>
-    <sheet name="管理者画面（password.php）" sheetId="4" r:id="rId2"/>
-    <sheet name="ホーム画面(home.php)" sheetId="5" r:id="rId3"/>
+    <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
+    <sheet name="管理者画面（password.php）" sheetId="18" r:id="rId2"/>
+    <sheet name="ホーム画面(home.php)" sheetId="19" r:id="rId3"/>
     <sheet name="カテゴリ画面（category.php）" sheetId="2" r:id="rId4"/>
     <sheet name="メイン画面(yaki.php)" sheetId="14" r:id="rId5"/>
     <sheet name="ドリンク画面(drink.php)" sheetId="13" r:id="rId6"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'ドリンク画面(drink.php)'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ホーム画面(home.php)'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'メイン画面(yaki.php)'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ログイン画面（rogin.php）'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ログイン画面（index.php）'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'管理者画面（password.php）'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'注文確定画面(kakutei.php)'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'履歴画面(rireki.php)'!$C$5:$C$19</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -436,89 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">接続エラーメッセージを出力して、ログイン画面に戻るボタンを設けた </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインID</t>
-  </si>
-  <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角数字を入力できるか確認</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字が入力できるかどうか</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字以外を入力できないようにしてあるか</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字意外入力されたとき、エラー表示</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力した英数字が（●）で隠されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>input type="password"を使う</t>
     <rPh sb="22" eb="23">
       <t>ツカ</t>
@@ -526,83 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角数字以外を入力できないようにしてあるか確認</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角数字以外入力されたとき、エラー表示</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送信ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>equiredでnull禁止設定</t>
-  </si>
-  <si>
-    <t>空でボタンを押下すると入力を促すメッセージを表示できているか</t>
-  </si>
-  <si>
-    <t>IDやパスワードが異なっている場合にエラーメッセージを表示</t>
-    <rPh sb="9" eb="10">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードが一致したときに、管理者画面に遷移</t>
-    <rPh sb="9" eb="11">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="17" eb="22">
-      <t>カンリシャガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者ログイン画面（password.php）</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -626,14 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>接続エラーメッセージを出力して、ログイン画面に戻る
-ボタンを設けた</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（初期表示）ユーザー名表示</t>
     <rPh sb="1" eb="5">
       <t>ショキヒョウジ</t>
@@ -657,17 +489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホーム画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -675,38 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホームボタンを押した時にホーム画面に遷移（home.php）</t>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューボタンを押した時に、メニュー画面に遷移(menu.php)</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期表示</t>
     <rPh sb="0" eb="4">
       <t>ショキヒョウジ</t>
@@ -784,25 +573,6 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者ボタンを押した時に、管理者画面に遷移</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="13" eb="18">
-      <t>カンリシャガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1857,12 +1627,494 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ID入力欄、パスワード入力欄、送信ボタン</t>
+    <rPh sb="2" eb="5">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続エラーメッセージを出力して、ログイン画面に戻るボタンを設けた （era.phpに遷移）</t>
+    <rPh sb="42" eb="44">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字の入力ができるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID空入力</t>
+    <rPh sb="6" eb="7">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力欄を空のまま「送信」した場合、入力を促す</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requiredでnull禁止設定</t>
+    <rPh sb="13" eb="15">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード欄入力</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字入力した際（●）で隠されているか</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input type="password"を使う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード空入力</t>
+    <rPh sb="5" eb="6">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力欄を空のまま「送信」した場合、入力を促す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requiredでnull禁止設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID誤入力</t>
+    <rPh sb="6" eb="7">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在しないIDを入力し送信を試した場合エラーメッセージが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在するIDに適当な1文字を追加し、存在しないIDに変えてログインを試す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード誤入力</t>
+    <rPh sb="5" eb="8">
+      <t>ゴニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致しないパスワードを入力し送信を試した場合エラーメッセージが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在するIDに対するパスワード末尾1文字を消してfalse判定にする</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタン押下</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1以上入力欄の空がある状態で送信ボタンを押すと画面遷移できない</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力欄はrequiredでnull禁止のため、入力を促す</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードが一致したときに、ホーム画面に遷移する（home.php）</t>
+    <rPh sb="9" eb="11">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン中ユーザー名、パスワード入力欄、送信ボタン、
+ホーム画面ボタン、メニュー画面ボタン</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続エラーメッセージを出力して、ログイン画面に戻る
+ボタンを設けた（era.phpに遷移）</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード欄入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字入力できるかどうか、文字入力した際（●）で隠されているか</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタン押下（空欄）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード欄空欄で送信した場合入力を促す</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力欄equiredでnull禁止設定</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタン押下（一致）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードが一致したときに、管理者メニュー画面に遷移（STEP2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP2未着手時はダミーページで対応</t>
+    <rPh sb="5" eb="9">
+      <t>ミチャクシュジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタン押下（不一致）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フイッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワード不一致の時、エラーメッセージ表示</t>
+    <rPh sb="8" eb="11">
+      <t>フイッチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューボタンを押した時に、メニュー画面に遷移(menu.php)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたユーザー名、お客様用画面ボタン、管理者用画面ボタン</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category.php</t>
+  </si>
+  <si>
+    <t>管理者ボタンを押した時に、管理者メニュー画面に遷移（STEP2のkanri.php）</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP2未着手時はダミーページで対応</t>
+    <rPh sb="5" eb="9">
+      <t>ミチャクシュジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1884,6 +2136,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1986,7 +2246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2040,6 +2300,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2321,11 +2587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2374,12 +2639,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
@@ -2395,7 +2662,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2406,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2421,12 +2688,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -2441,12 +2710,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
@@ -2461,10 +2732,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
@@ -2474,17 +2749,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
@@ -2494,17 +2771,19 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -2519,10 +2798,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
@@ -2537,12 +2820,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -2556,15 +2839,9 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="10"/>
@@ -2578,13 +2855,9 @@
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="10"/>
@@ -2598,12 +2871,8 @@
       <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2619,12 +2888,8 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
@@ -2996,7 +3261,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3027,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3042,10 +3307,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -4173,11 +4438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4195,7 +4459,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4221,17 +4485,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
@@ -4247,7 +4513,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4257,13 +4523,13 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -4273,10 +4539,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4288,17 +4554,19 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
@@ -4308,17 +4576,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
@@ -4328,18 +4598,18 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4355,10 +4625,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -4374,12 +4644,8 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4395,12 +4661,8 @@
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -4414,12 +4676,8 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4434,12 +4692,8 @@
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4822,11 +5076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4844,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4875,12 +5128,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
@@ -4890,10 +5145,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -4905,27 +5160,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -5599,7 +5858,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6084,7 +6343,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -6115,10 +6374,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6130,10 +6389,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -6145,10 +6404,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6160,10 +6419,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6180,10 +6439,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6200,10 +6459,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6220,10 +6479,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6737,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6752,10 +7011,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -6767,10 +7026,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6782,10 +7041,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6802,10 +7061,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6822,10 +7081,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6842,10 +7101,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7359,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7374,10 +7633,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -7389,10 +7648,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7404,10 +7663,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7424,10 +7683,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7444,10 +7703,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7464,10 +7723,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7953,7 +8212,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -7984,10 +8243,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7999,10 +8258,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -8539,7 +8798,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:D38"/>
     </sheetView>
   </sheetViews>
@@ -8698,10 +8957,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8718,13 +8977,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -8740,10 +8999,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -8760,13 +9019,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -8782,10 +9041,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -8802,13 +9061,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -8824,10 +9083,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -8844,13 +9103,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -8866,10 +9125,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -8886,13 +9145,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -8908,10 +9167,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
@@ -8944,13 +9203,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -8966,10 +9225,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
@@ -8986,13 +9245,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -9003,10 +9262,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="15"/>
@@ -9023,13 +9282,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -9045,10 +9304,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
@@ -9065,13 +9324,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -9082,10 +9341,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
@@ -9097,13 +9356,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -9114,10 +9373,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
@@ -9140,13 +9399,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -9157,10 +9416,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
@@ -9172,13 +9431,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -9189,10 +9448,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
@@ -9215,10 +9474,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="164">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -876,10 +876,6 @@
     <rPh sb="5" eb="7">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文がありません等と表示されているか</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2106,6 +2102,58 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が注文されていませんと表示され、カテゴリー画面へのボタンが表示されているか
+テーブル、合計注文数、合計金額は表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー画面ボタン</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー画面へを押した際に、category.phpに遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2589,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2645,7 +2693,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2662,7 +2710,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2673,10 +2721,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2688,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2710,13 +2758,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2732,13 +2780,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2754,13 +2802,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2776,13 +2824,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2798,13 +2846,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2820,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -4496,7 +4544,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4513,7 +4561,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4539,10 +4587,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4559,13 +4607,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4581,13 +4629,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4603,10 +4651,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -4628,7 +4676,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -5134,7 +5182,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5166,7 +5214,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5180,10 +5228,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -8798,8 +8846,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8942,7 +8990,9 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
@@ -8952,7 +9002,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -8960,7 +9010,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8972,19 +9022,17 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>78</v>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -8998,13 +9046,9 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
@@ -9019,13 +9063,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -9041,10 +9085,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -9061,13 +9105,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9083,10 +9127,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -9103,13 +9147,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9125,10 +9169,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -9145,13 +9189,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -9167,10 +9211,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
@@ -9182,13 +9226,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="10"/>
@@ -9198,19 +9248,17 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
@@ -9224,12 +9272,8 @@
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -9245,13 +9289,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -9262,12 +9306,12 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
@@ -9277,18 +9321,18 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -9304,10 +9348,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
@@ -9324,13 +9368,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -9341,28 +9385,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>114</v>
+      <c r="B30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -9372,41 +9416,45 @@
       <c r="A31" s="9">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>115</v>
+      <c r="B31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>29</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="B33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
@@ -9415,29 +9463,25 @@
       <c r="A34" s="9">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -9448,36 +9492,42 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>34</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
@@ -9489,18 +9539,22 @@
         <v>36</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>37</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="169">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -709,110 +709,6 @@
     <t>商品ボタン</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品を押した時に、モーダル画面に押した商品が追加されるか確認</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示されている商品情報が、選択したものと一致しているか確認</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダル(取消)</t>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取り消しを押した際にその商品がモーダルの中から削除されるか確認</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻るボタン</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻るボタンを押した際に、カテゴリー画面に遷移</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2157,12 +2053,308 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>商品を押した時に、モーダル画面が表示され、押した商品が追加されるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">表示されている商品情報が、選択したものと一致しているか確認
+１、２、３、４，５の数量ボタンが表示されていて、一つ一つ選択することができるか確認
+戻るボタンが表示されていて、押すことができ、モーダル画面を閉じ、メニュー画面に戻ることができるか確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">確定ボタンが表示されていて、押すことができ、モーダル画面を閉じ、メニュー画面に戻ることができるか確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル(確定ボタン)</t>
+    <rPh sb="5" eb="7">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定ボタンを押した際に、メニュー画面に戻りメニュー画面に、モーダル画面で確定した商品の画像とその商品名、注文数,.、取消ボタンが表示されていることを確認
+数量ボタンが選択されていない場合、モーダル画面にエラーメッセージを表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル画面（戻る）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">モーダル画面を閉じメニュー画面に戻ることができるか確認
+</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取消ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取消を押した際にその注文した商品の商品画像、商品名、注文数、取消ボタンを削除する</t>
+    <rPh sb="10" eb="12">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ショウヒンガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+  </si>
+  <si>
+    <t>戻るボタンを押した時に、カテゴリー画面に遷移</t>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続</t>
+  </si>
+  <si>
+    <t>DBの接続を切ったとき、エラーページに飛ばす</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,6 +2384,14 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2294,7 +2494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2354,6 +2554,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2693,7 +2896,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2710,7 +2913,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2721,10 +2924,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2736,13 +2939,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2758,13 +2961,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2780,13 +2983,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2802,13 +3005,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2824,13 +3027,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2846,13 +3049,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2868,10 +3071,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -4544,7 +4747,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4561,7 +4764,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4587,10 +4790,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4607,13 +4810,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4629,13 +4832,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4651,10 +4854,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -4676,7 +4879,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -5182,7 +5385,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5214,7 +5417,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5228,10 +5431,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5906,7 +6109,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6373,7 +6576,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6422,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>52</v>
@@ -6432,7 +6635,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -6440,37 +6643,37 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>157</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>159</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6482,15 +6685,15 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>161</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6502,15 +6705,15 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>163</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6526,11 +6729,11 @@
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6546,8 +6749,12 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6562,8 +6769,12 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6578,8 +6789,12 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6998,7 +7213,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C10"/>
+      <selection activeCell="A4" sqref="A4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7044,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>52</v>
@@ -7054,7 +7269,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -7062,37 +7277,37 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>157</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>159</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7104,15 +7319,15 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>161</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7124,15 +7339,15 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>163</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7148,11 +7363,11 @@
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7168,8 +7383,12 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -7184,8 +7403,12 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -7200,8 +7423,12 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -7619,8 +7846,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7666,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>52</v>
@@ -7676,7 +7903,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -7684,37 +7911,37 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>157</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>159</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7726,15 +7953,15 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>161</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7746,15 +7973,15 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>163</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7770,11 +7997,11 @@
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7790,8 +8017,12 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -7806,8 +8037,12 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -7822,8 +8057,12 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -8846,7 +9085,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8991,7 +9230,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -9007,10 +9246,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9027,10 +9266,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -9063,13 +9302,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -9085,10 +9324,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -9105,13 +9344,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9127,10 +9366,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -9147,13 +9386,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9169,10 +9408,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -9189,13 +9428,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -9211,10 +9450,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
@@ -9231,13 +9470,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -9253,10 +9492,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
@@ -9289,13 +9528,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -9306,10 +9545,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="15"/>
@@ -9326,13 +9565,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -9348,10 +9587,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
@@ -9368,13 +9607,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -9385,10 +9624,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
@@ -9400,13 +9639,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -9417,10 +9656,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
@@ -9432,13 +9671,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -9449,10 +9688,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
@@ -9475,13 +9714,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -9492,10 +9731,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
@@ -9507,13 +9746,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -9524,10 +9763,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
@@ -9550,10 +9789,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -19,19 +19,19 @@
     <sheet name="メイン画面(yaki.php)" sheetId="14" r:id="rId5"/>
     <sheet name="ドリンク画面(drink.php)" sheetId="13" r:id="rId6"/>
     <sheet name="サイド画面(side.php)" sheetId="15" r:id="rId7"/>
-    <sheet name="エラー画面(era.php)" sheetId="6" r:id="rId8"/>
+    <sheet name="エラー画面(error.php)" sheetId="6" r:id="rId8"/>
     <sheet name="履歴画面(rireki.php)" sheetId="1" r:id="rId9"/>
     <sheet name="注文確定画面(kakutei.php)" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet1 (11)" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Sheet1 (11)'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'エラー画面(era.php)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'エラー画面(error.php)'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'カテゴリ画面（category.php）'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'サイド画面(side.php)'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'ドリンク画面(drink.php)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'サイド画面(side.php)'!$C$5:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'ドリンク画面(drink.php)'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ホーム画面(home.php)'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'メイン画面(yaki.php)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'メイン画面(yaki.php)'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ログイン画面（index.php）'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'管理者画面（password.php）'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'注文確定画面(kakutei.php)'!$C$5:$C$19</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="173">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -594,13 +594,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラー画面(era.php)</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1533,13 +1526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>接続エラーメッセージを出力して、ログイン画面に戻るボタンを設けた （era.phpに遷移）</t>
-    <rPh sb="42" eb="44">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインID入力</t>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
@@ -1823,14 +1809,6 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接続エラーメッセージを出力して、ログイン画面に戻る
-ボタンを設けた（era.phpに遷移）</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2348,6 +2326,101 @@
   </si>
   <si>
     <t>DBの接続を切ったとき、エラーページに飛ばす</t>
+  </si>
+  <si>
+    <t>接続エラーメッセージを出力して、ログイン画面に戻る
+ボタンを設けた（error.phpに遷移）</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続エラーメッセージを出力して、ログイン画面に戻るボタンを設けた （error.phpに遷移）</t>
+    <rPh sb="44" eb="46">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を押した時に、モーダル画面が表示されるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル(DB切断)</t>
+    <rPh sb="7" eb="9">
+      <t>セツダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの接続を切ったとき、エラーページに飛ばす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル画面で表示された状態で、DBの接続が切れた場合にエラーページに飛ぶか確認（数量1　確定押下時）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面(error.php)</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2396,12 +2469,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -2494,7 +2573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2550,13 +2629,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2841,7 +2926,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2896,7 +2981,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2913,7 +2998,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2924,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2939,13 +3024,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2961,13 +3046,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2983,13 +3068,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3005,13 +3090,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3027,13 +3112,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3049,13 +3134,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3071,12 +3156,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -3493,7 +3578,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3512,7 +3597,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3546,7 +3631,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3558,10 +3643,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -4692,7 +4777,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4747,7 +4832,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4764,7 +4849,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4780,7 +4865,7 @@
       <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -4790,10 +4875,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4810,13 +4895,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4832,13 +4917,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4854,10 +4939,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -4879,7 +4964,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -5330,7 +5415,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5385,7 +5470,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5401,7 +5486,7 @@
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
@@ -5417,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5431,10 +5516,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5445,13 +5530,19 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
@@ -5949,7 +6040,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6109,7 +6200,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6124,8 +6215,12 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6573,10 +6668,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6594,7 +6689,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -6635,15 +6730,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -6655,45 +6750,40 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>162</v>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6710,10 +6800,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6725,15 +6815,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>160</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6749,13 +6839,13 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -6769,11 +6859,11 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>165</v>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -6790,10 +6880,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -6809,8 +6899,12 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6823,7 +6917,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6839,7 +6933,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6855,7 +6949,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6871,7 +6965,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6887,11 +6981,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -6903,10 +6997,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6919,7 +7013,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6935,7 +7029,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6950,58 +7044,58 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -7010,7 +7104,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7026,18 +7120,23 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
@@ -7048,7 +7147,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
@@ -7059,7 +7158,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
@@ -7070,7 +7169,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
@@ -7081,7 +7180,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
@@ -7092,7 +7191,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
@@ -7103,7 +7202,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
@@ -7114,7 +7213,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
@@ -7125,7 +7224,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
@@ -7136,7 +7235,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
@@ -7147,7 +7246,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
@@ -7158,7 +7257,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
@@ -7169,10 +7268,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -7180,7 +7279,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7191,7 +7290,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7199,6 +7298,17 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7210,10 +7320,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C13"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7274,10 +7384,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -7289,45 +7399,40 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>162</v>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7344,10 +7449,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7359,15 +7464,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>160</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7383,13 +7488,13 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -7403,11 +7508,11 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>165</v>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -7424,10 +7529,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -7443,8 +7548,12 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -7523,9 +7632,9 @@
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -7539,8 +7648,8 @@
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -7584,58 +7693,58 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -7644,7 +7753,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7660,18 +7769,23 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
@@ -7682,7 +7796,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
@@ -7693,7 +7807,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
@@ -7704,7 +7818,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
@@ -7715,7 +7829,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
@@ -7726,7 +7840,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
@@ -7737,7 +7851,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
@@ -7748,7 +7862,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
@@ -7759,7 +7873,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
@@ -7770,7 +7884,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
@@ -7781,7 +7895,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
@@ -7792,7 +7906,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
@@ -7803,10 +7917,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -7814,7 +7928,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7825,7 +7939,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7833,6 +7947,17 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7844,10 +7969,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7908,10 +8033,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -7923,45 +8048,40 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>162</v>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7978,10 +8098,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7993,15 +8113,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>160</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8017,13 +8137,13 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -8037,11 +8157,11 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>165</v>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -8058,10 +8178,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -8077,8 +8197,12 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -8157,9 +8281,9 @@
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -8173,8 +8297,8 @@
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -8218,58 +8342,58 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -8296,12 +8420,17 @@
       <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
@@ -8316,7 +8445,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
@@ -8327,7 +8456,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
@@ -8338,7 +8467,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
@@ -8349,7 +8478,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
@@ -8360,7 +8489,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
@@ -8371,7 +8500,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
@@ -8382,7 +8511,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
@@ -8393,7 +8522,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
@@ -8404,7 +8533,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
@@ -8415,7 +8544,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
@@ -8426,7 +8555,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
@@ -8437,10 +8566,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -8448,7 +8577,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -8459,7 +8588,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -8467,6 +8596,17 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8481,7 +8621,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8499,7 +8639,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -8530,10 +8670,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8545,10 +8685,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -8559,8 +8699,12 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -9085,7 +9229,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9230,7 +9374,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -9246,10 +9390,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9266,10 +9410,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -9302,13 +9446,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -9324,10 +9468,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -9344,13 +9488,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9366,10 +9510,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -9386,13 +9530,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9408,10 +9552,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -9428,13 +9572,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -9450,10 +9594,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
@@ -9470,13 +9614,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -9492,10 +9636,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
@@ -9528,13 +9672,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -9545,10 +9689,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="15"/>
@@ -9565,13 +9709,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -9587,10 +9731,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
@@ -9607,13 +9751,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -9624,10 +9768,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
@@ -9639,13 +9783,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -9656,10 +9800,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
@@ -9671,13 +9815,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -9688,10 +9832,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
@@ -9714,13 +9858,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -9731,10 +9875,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
@@ -9746,13 +9890,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -9763,10 +9907,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
@@ -9789,10 +9933,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" activeTab="9"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3578,7 +3578,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="182">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -1668,10 +1668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>存在するIDに適当な1文字を追加し、存在しないIDに変えてログインを試す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード誤入力</t>
     <rPh sb="5" eb="8">
       <t>ゴニュウリョク</t>
@@ -1697,25 +1693,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存在するIDに対するパスワード末尾1文字を消してfalse判定にする</t>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>マツビ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2422,6 +2399,109 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>存在するIDに適当な1文字を追加し、存在しないIDに変えてログインを試す
+ID：店長あ　で試す（正式なID店長）</t>
+    <rPh sb="40" eb="42">
+      <t>テンチョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在するIDに対するパスワード末尾1文字を消してfalse判定にする
+パスワード：test123 で試す（正式なパスワード　test1234）</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID：店長　パスワード：test1234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザー名：店長</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名：店長</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「きたあかりバター」</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「きたあかりバター」の数量1　確定押下後</t>
+    <rPh sb="17" eb="19">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>オウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「オレンジジュース」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「オレンジジュース」の数量1　確定押下後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「おにぎり」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「おにぎり」の数量1　確定押下後</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2454,15 +2534,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2637,10 +2716,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2926,7 +3005,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2998,7 +3077,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3085,7 +3164,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -3096,7 +3175,7 @@
         <v>125</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3107,18 +3186,18 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3134,13 +3213,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3156,12 +3235,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -4777,6 +4858,646 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4795,7 +5516,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4821,7 +5542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -4829,10 +5550,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>134</v>
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4843,44 +5564,48 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>166</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -4895,653 +5620,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6216,10 +6301,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -6670,8 +6755,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6738,7 +6823,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -6750,12 +6835,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -6765,12 +6852,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21" t="s">
+        <v>177</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -6780,10 +6869,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6800,10 +6889,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6820,10 +6909,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6880,10 +6969,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -6900,10 +6989,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -7323,7 +7412,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7387,7 +7476,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -7399,12 +7488,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -7414,12 +7505,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -7429,10 +7522,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7449,10 +7542,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7469,10 +7562,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7529,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -7549,10 +7642,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -7971,8 +8064,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8036,7 +8129,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -8048,12 +8141,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -8063,12 +8158,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21" t="s">
+        <v>181</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -8078,10 +8175,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8098,10 +8195,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8118,10 +8215,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8178,10 +8275,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -8198,10 +8295,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -8621,7 +8718,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8639,7 +8736,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -8699,12 +8796,8 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -9229,8 +9322,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9393,7 +9486,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9410,10 +9503,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="173">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -1668,6 +1668,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>存在するIDに適当な1文字を追加し、存在しないIDに変えてログインを試す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>パスワード誤入力</t>
     <rPh sb="5" eb="8">
       <t>ゴニュウリョク</t>
@@ -1693,6 +1697,25 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在するIDに対するパスワード末尾1文字を消してfalse判定にする</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2399,109 +2422,6 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>存在するIDに適当な1文字を追加し、存在しないIDに変えてログインを試す
-ID：店長あ　で試す（正式なID店長）</t>
-    <rPh sb="40" eb="42">
-      <t>テンチョウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>テンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存在するIDに対するパスワード末尾1文字を消してfalse判定にする
-パスワード：test123 で試す（正式なパスワード　test1234）</t>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>マツビ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID：店長　パスワード：test1234</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインユーザー名：店長</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー名：店長</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択メニュー「きたあかりバター」</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択メニュー「きたあかりバター」の数量1　確定押下後</t>
-    <rPh sb="17" eb="19">
-      <t>スウリョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>オウカゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択メニュー「オレンジジュース」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択メニュー「オレンジジュース」の数量1　確定押下後</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択メニュー「おにぎり」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択メニュー「おにぎり」の数量1　確定押下後</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -2534,14 +2454,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2716,10 +2637,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3005,7 +2926,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3077,7 +2998,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3164,7 +3085,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -3175,7 +3096,7 @@
         <v>125</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3186,18 +3107,18 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3213,13 +3134,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3235,14 +3156,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -4858,646 +4777,6 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5516,7 +4795,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5542,7 +4821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5550,10 +4829,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5564,48 +4843,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -5620,13 +4895,653 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6301,10 +6216,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -6755,8 +6670,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6823,7 +6738,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -6835,14 +6750,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>176</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -6852,14 +6765,12 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>177</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -6869,10 +6780,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6889,10 +6800,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6909,10 +6820,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6969,10 +6880,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -6989,10 +6900,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -7412,7 +7323,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7476,7 +7387,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -7488,14 +7399,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>178</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -7505,14 +7414,12 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>179</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -7522,10 +7429,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7542,10 +7449,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7562,10 +7469,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7622,10 +7529,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -7642,10 +7549,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -8064,8 +7971,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8129,7 +8036,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -8141,14 +8048,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>180</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -8158,14 +8063,12 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>181</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -8175,10 +8078,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8195,10 +8098,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8215,10 +8118,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8275,10 +8178,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -8295,10 +8198,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -8718,7 +8621,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8736,7 +8639,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -8796,8 +8699,12 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -9322,8 +9229,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9486,7 +9393,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9503,10 +9410,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
-    <sheet name="管理者画面（password.php）" sheetId="18" r:id="rId2"/>
+    <sheet name="管理者画面（manager_login.php）" sheetId="18" r:id="rId2"/>
     <sheet name="ホーム画面(home.php)" sheetId="19" r:id="rId3"/>
     <sheet name="カテゴリ画面（category.php）" sheetId="2" r:id="rId4"/>
-    <sheet name="メイン画面(yaki.php)" sheetId="14" r:id="rId5"/>
+    <sheet name="メイン画面(main.php)" sheetId="14" r:id="rId5"/>
     <sheet name="ドリンク画面(drink.php)" sheetId="13" r:id="rId6"/>
     <sheet name="サイド画面(side.php)" sheetId="15" r:id="rId7"/>
     <sheet name="エラー画面(error.php)" sheetId="6" r:id="rId8"/>
@@ -31,9 +31,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'サイド画面(side.php)'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'ドリンク画面(drink.php)'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ホーム画面(home.php)'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'メイン画面(yaki.php)'!$C$5:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'メイン画面(main.php)'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ログイン画面（index.php）'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'管理者画面（password.php）'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'管理者画面（manager_login.php）'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'注文確定画面(kakutei.php)'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'履歴画面(rireki.php)'!$C$5:$C$19</definedName>
   </definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -439,16 +439,6 @@
     <t>input type="password"を使う</t>
     <rPh sb="22" eb="23">
       <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者ログイン画面（password.php）</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1668,10 +1658,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>存在するIDに適当な1文字を追加し、存在しないIDに変えてログインを試す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード誤入力</t>
     <rPh sb="5" eb="8">
       <t>ゴニュウリョク</t>
@@ -1697,25 +1683,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存在するIDに対するパスワード末尾1文字を消してfalse判定にする</t>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>マツビ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2422,6 +2389,459 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>存在するIDに適当な1文字を追加し、存在しないIDに変えてログインを試す
+ID：店長あ　で試す（正式なID店長）</t>
+    <rPh sb="40" eb="42">
+      <t>テンチョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在するIDに対するパスワード末尾1文字を消してfalse判定にする
+パスワード：test123 で試す（正式なパスワード　test1234）</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID：店長　パスワード：test1234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザー名：店長</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名：店長</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「きたあかりバター」</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「きたあかりバター」の数量1　確定押下後</t>
+    <rPh sb="17" eb="19">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>オウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「オレンジジュース」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「オレンジジュース」の数量1　確定押下後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「おにぎり」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択メニュー「おにぎり」の数量1　確定押下後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログインチェック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ログイン画面（manager_login.php）</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でmanager_login.phpにアクセスをしてもmanager_login.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後manager_login.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でhome.phpにアクセスをしてもhome.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後home.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でcategory.phpにアクセスをしてもcategory.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後category.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でmain.phpにアクセスをしてもmain.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後main.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でside.phpにアクセスをしてもside.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後side.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でrireki.phpにアクセスをしてもrireki.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後rireki.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後kakutei.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でkakutei.phpにアクセスをしてもkakutei.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager_login.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2454,15 +2874,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2637,10 +3056,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2981,7 +3400,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2998,7 +3417,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3009,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3024,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3046,13 +3465,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3068,13 +3487,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3085,18 +3504,18 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3107,18 +3526,18 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3134,13 +3553,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3156,12 +3575,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -3579,7 +4000,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3597,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3628,10 +4049,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3643,23 +4064,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -4777,7 +5204,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4795,7 +5222,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4829,10 +5256,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4849,7 +5276,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4860,12 +5287,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>173</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -4875,10 +5304,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4895,13 +5324,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4917,13 +5346,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4939,10 +5368,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -4961,10 +5390,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -4976,13 +5405,19 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
@@ -5415,7 +5850,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5433,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5467,10 +5902,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5481,12 +5916,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
@@ -5496,13 +5933,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5513,13 +5950,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5541,7 +5978,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5552,13 +5989,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
@@ -6040,7 +6483,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6200,7 +6643,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6216,10 +6659,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -6231,13 +6674,19 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
@@ -6670,8 +7119,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6689,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -6723,7 +7172,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6735,10 +7184,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -6750,12 +7199,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -6765,12 +7216,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>176</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -6780,10 +7233,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6800,10 +7253,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6820,10 +7273,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6843,7 +7296,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6860,10 +7313,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -6880,10 +7333,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -6900,10 +7353,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -6915,13 +7368,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="10"/>
@@ -7323,7 +7782,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7372,7 +7831,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7384,10 +7843,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -7399,12 +7858,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>177</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -7414,12 +7875,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -7429,10 +7892,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7449,10 +7912,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7469,10 +7932,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7492,7 +7955,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -7509,10 +7972,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -7529,10 +7992,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -7549,10 +8012,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -7564,13 +8027,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="10"/>
@@ -7971,8 +8440,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8021,7 +8490,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8033,10 +8502,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -8048,12 +8517,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -8063,12 +8534,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -8078,10 +8551,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8098,10 +8571,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8118,10 +8591,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8141,7 +8614,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -8158,10 +8631,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -8178,10 +8651,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -8198,10 +8671,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -8213,13 +8686,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="10"/>
@@ -8621,7 +9100,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8639,7 +9118,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -8670,10 +9149,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8685,10 +9164,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -8699,12 +9178,8 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -9229,8 +9704,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9374,7 +9849,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -9390,10 +9865,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9410,10 +9885,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -9446,13 +9921,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -9468,10 +9943,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -9488,13 +9963,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9510,10 +9985,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -9530,13 +10005,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9552,10 +10027,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -9572,13 +10047,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -9594,10 +10069,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
@@ -9614,13 +10089,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -9636,10 +10111,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
@@ -9672,13 +10147,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -9689,10 +10164,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="15"/>
@@ -9709,13 +10184,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -9731,10 +10206,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
@@ -9751,13 +10226,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -9768,10 +10243,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
@@ -9783,13 +10258,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -9800,10 +10275,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
@@ -9815,13 +10290,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -9832,10 +10307,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
@@ -9858,13 +10333,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -9875,10 +10350,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
@@ -9890,13 +10365,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -9907,10 +10382,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
@@ -9933,23 +10408,29 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>38</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="205">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -274,22 +274,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>串ものボタンを押した時にkusi.phpに遷移</t>
-    <rPh sb="0" eb="1">
-      <t>クシ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1484,25 +1468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品を8つ以上注文した時に、テーブルにスクロールバーが表示されるか</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID入力欄、パスワード入力欄、送信ボタン</t>
     <rPh sb="2" eb="5">
       <t>ニュウリョクラン</t>
@@ -1884,31 +1849,6 @@
   </si>
   <si>
     <t>メニューボタンを押した時に、メニュー画面に遷移(menu.php)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしたユーザー名、お客様用画面ボタン、管理者用画面ボタン</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キャクサマ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2840,6 +2780,107 @@
   </si>
   <si>
     <t>manager_login.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野寺</t>
+    <rPh sb="0" eb="3">
+      <t>オノデラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたユーザー名、お客様用画面ボタン、
+管理者用画面ボタン</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正が必要</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正あり</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を６つ以上注文した時に、テーブルにスクロールバーが表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>串ものボタンを押した時にmain.phpに遷移</t>
+    <rPh sb="0" eb="1">
+      <t>クシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3344,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3363,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3397,63 +3438,87 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+        <v>109</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3465,17 +3530,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3487,17 +3558,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3509,17 +3586,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44588</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3531,17 +3614,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44588</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3553,17 +3642,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44588</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3575,16 +3670,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4000,7 +4099,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4018,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4049,47 +4148,65 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -5204,7 +5321,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="E4" sqref="E4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5222,7 +5339,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5256,14 +5373,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+        <v>129</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
@@ -5276,43 +5399,61 @@
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+        <v>160</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+        <v>170</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -5324,17 +5465,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -5346,17 +5493,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -5368,17 +5521,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44588</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -5390,15 +5549,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44588</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -5410,17 +5575,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44588</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -5850,7 +6021,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5868,7 +6039,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5894,7 +6065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5902,65 +6073,89 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+        <v>171</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -5978,11 +6173,17 @@
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+        <v>160</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -5994,17 +6195,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+        <v>183</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6482,2624 +6689,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>38</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>39</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
-        <v>40</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:L44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>38</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>39</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
-        <v>40</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:L44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>38</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>39</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
-        <v>40</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9118,7 +6708,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -9149,52 +6739,84 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -9205,12 +6827,22 @@
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -9221,12 +6853,22 @@
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -9237,12 +6879,24 @@
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44588</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -9253,28 +6907,50 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44588</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44588</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -9699,13 +7375,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:L43"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9723,7 +7399,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -9749,7 +7425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -9757,43 +7433,2243 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="B13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
         <v>32</v>
       </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -9802,12 +9678,8 @@
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -9822,12 +9694,8 @@
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -9842,15 +9710,9 @@
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
@@ -9860,16 +9722,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -9884,13 +9742,9 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -9904,9 +9758,9 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
@@ -9916,19 +9770,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="10"/>
@@ -9942,12 +9790,8 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -9958,19 +9802,13 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="10"/>
@@ -9984,12 +9822,8 @@
       <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -10000,19 +9834,13 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
@@ -10026,12 +9854,8 @@
       <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -10042,19 +9866,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -10068,13 +9886,9 @@
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="10"/>
@@ -10084,19 +9898,13 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="10"/>
@@ -10110,13 +9918,9 @@
       <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
@@ -10130,9 +9934,9 @@
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="12"/>
@@ -10142,19 +9946,13 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
@@ -10163,13 +9961,9 @@
       <c r="A25" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
@@ -10179,19 +9973,13 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="10"/>
@@ -10205,13 +9993,9 @@
       <c r="A27" s="9">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="10"/>
@@ -10221,19 +10005,13 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
@@ -10242,30 +10020,20 @@
       <c r="A29" s="9">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
@@ -10274,30 +10042,20 @@
       <c r="A31" s="9">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
@@ -10306,12 +10064,8 @@
       <c r="A33" s="9">
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -10328,19 +10082,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
@@ -10349,30 +10097,20 @@
       <c r="A36" s="9">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
@@ -10381,12 +10119,8 @@
       <c r="A38" s="9">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -10397,40 +10131,30 @@
         <v>36</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>38</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
@@ -10462,4 +10186,997 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="10">
+        <v>44588</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Sheet1 (11)'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'エラー画面(error.php)'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'カテゴリ画面（category.php）'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'カテゴリ画面（category.php）'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'サイド画面(side.php)'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'ドリンク画面(drink.php)'!$C$5:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ホーム画面(home.php)'!$C$5:$C$19</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="210">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -2838,13 +2838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正あり</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2880,6 +2873,84 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計ボタン非表示</t>
+    <rPh sb="1" eb="3">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計ボタン表示確認</t>
+    <rPh sb="1" eb="3">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定している注文がない（初期アクセス時）は会計ボタンはない</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定している注文が1以上ある時にお会計ボタンが表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要修正</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要修正</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウシュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2929,7 +3000,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2939,6 +3010,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3033,7 +3110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3094,13 +3171,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3385,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3591,7 +3674,7 @@
       <c r="C10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>167</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3619,7 +3702,7 @@
       <c r="C11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3647,7 +3730,7 @@
       <c r="C12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -3675,7 +3758,7 @@
       <c r="C13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3697,7 +3780,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="10"/>
@@ -5320,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5421,7 +5504,7 @@
       <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>170</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -6018,10 +6101,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6092,22 +6178,22 @@
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="21">
         <v>44588</v>
       </c>
     </row>
@@ -6686,11 +6772,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L43"/>
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6763,7 +6851,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
@@ -6853,48 +6941,42 @@
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="10">
-        <v>44588</v>
-      </c>
+      <c r="B9" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="B10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="21">
         <v>44588</v>
       </c>
       <c r="H10" s="1"/>
@@ -6907,20 +6989,20 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="21">
         <v>44588</v>
       </c>
       <c r="H11" s="1"/>
@@ -6929,21 +7011,21 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>178</v>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>185</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>196</v>
@@ -6961,28 +7043,50 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44588</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44588</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -7057,9 +7161,9 @@
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -7073,8 +7177,8 @@
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -7118,58 +7222,58 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -7196,12 +7300,17 @@
       <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
@@ -7340,7 +7449,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -7367,6 +7476,17 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7381,7 +7501,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7477,7 +7597,7 @@
       <c r="C6" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -7500,7 +7620,7 @@
       <c r="C7" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -8114,8 +8234,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8208,7 +8328,7 @@
       <c r="C6" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -8231,7 +8351,7 @@
       <c r="C7" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>175</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -8846,7 +8966,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8939,7 +9059,7 @@
       <c r="C6" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -8962,7 +9082,7 @@
       <c r="C7" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -9576,7 +9696,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -10252,7 +10372,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>196</v>
@@ -10273,7 +10393,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>196</v>
@@ -10296,7 +10416,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>196</v>
@@ -10317,7 +10437,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>196</v>
@@ -10343,7 +10463,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>196</v>
@@ -10371,7 +10491,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>196</v>
@@ -10397,7 +10517,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>196</v>
@@ -10423,7 +10543,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>196</v>
@@ -10445,7 +10565,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>196</v>
@@ -10473,7 +10593,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>196</v>
@@ -10499,7 +10619,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>196</v>
@@ -10527,7 +10647,7 @@
         <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>196</v>
@@ -10553,7 +10673,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>196</v>
@@ -10581,7 +10701,7 @@
         <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>196</v>
@@ -10607,7 +10727,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>196</v>
@@ -10635,7 +10755,7 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>196</v>
@@ -10661,7 +10781,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>196</v>
@@ -10689,7 +10809,7 @@
         <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>196</v>
@@ -10715,7 +10835,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>196</v>
@@ -10737,7 +10857,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>196</v>
@@ -10765,7 +10885,7 @@
         <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>196</v>
@@ -10786,7 +10906,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>196</v>
@@ -10814,7 +10934,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>196</v>
@@ -10840,7 +10960,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>196</v>
@@ -10868,7 +10988,7 @@
         <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>196</v>
@@ -10889,7 +11009,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>196</v>
@@ -10912,7 +11032,7 @@
         <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>196</v>
@@ -10933,7 +11053,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>196</v>
@@ -10956,7 +11076,7 @@
         <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>196</v>
@@ -10977,7 +11097,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>196</v>
@@ -10994,7 +11114,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>196</v>
@@ -11017,7 +11137,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>196</v>
@@ -11038,7 +11158,7 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>196</v>
@@ -11061,7 +11181,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>196</v>
@@ -11082,7 +11202,7 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>196</v>
@@ -11099,7 +11219,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>196</v>
@@ -11116,11 +11236,11 @@
         <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>196</v>
@@ -11143,7 +11263,7 @@
         <v>191</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>196</v>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="209">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -2824,16 +2824,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正が必要</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2941,16 +2931,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要修正</t>
+    <t>〇（修正済み）</t>
+    <rPh sb="2" eb="5">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野寺</t>
     <rPh sb="0" eb="3">
-      <t>ヨウシュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要修正</t>
-    <rPh sb="0" eb="3">
-      <t>ヨウシュウセイ</t>
+      <t>オノデラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6107,7 +6097,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6188,7 +6178,7 @@
         <v>171</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>196</v>
@@ -6778,7 +6768,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6834,7 +6824,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>196</v>
@@ -6851,11 +6841,11 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>196</v>
@@ -6876,7 +6866,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>196</v>
@@ -6897,7 +6887,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>196</v>
@@ -6923,7 +6913,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>196</v>
@@ -6942,17 +6932,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>207</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="21">
+        <v>44588</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6964,14 +6958,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>196</v>
@@ -6997,7 +6991,7 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>196</v>
@@ -9774,7 +9768,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>196</v>
@@ -10372,7 +10366,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>196</v>
@@ -10393,7 +10387,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>196</v>
@@ -10416,7 +10410,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>196</v>
@@ -10437,7 +10431,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>196</v>
@@ -10463,7 +10457,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>196</v>
@@ -10491,7 +10485,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>196</v>
@@ -10517,7 +10511,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>196</v>
@@ -10543,7 +10537,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>196</v>
@@ -10565,7 +10559,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>196</v>
@@ -10593,7 +10587,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>196</v>
@@ -10619,7 +10613,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>196</v>
@@ -10647,7 +10641,7 @@
         <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>196</v>
@@ -10673,7 +10667,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>196</v>
@@ -10701,7 +10695,7 @@
         <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>196</v>
@@ -10727,7 +10721,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>196</v>
@@ -10755,7 +10749,7 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>196</v>
@@ -10781,7 +10775,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>196</v>
@@ -10809,7 +10803,7 @@
         <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>196</v>
@@ -10835,7 +10829,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>196</v>
@@ -10857,7 +10851,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>196</v>
@@ -10885,7 +10879,7 @@
         <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>196</v>
@@ -10906,7 +10900,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>196</v>
@@ -10934,7 +10928,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>196</v>
@@ -10960,7 +10954,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>196</v>
@@ -10988,7 +10982,7 @@
         <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>196</v>
@@ -11009,7 +11003,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>196</v>
@@ -11032,7 +11026,7 @@
         <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>196</v>
@@ -11053,7 +11047,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>196</v>
@@ -11076,7 +11070,7 @@
         <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>196</v>
@@ -11097,7 +11091,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>196</v>
@@ -11114,7 +11108,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>196</v>
@@ -11137,7 +11131,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>196</v>
@@ -11158,7 +11152,7 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>196</v>
@@ -11181,7 +11175,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>196</v>
@@ -11202,7 +11196,7 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>196</v>
@@ -11219,7 +11213,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>196</v>
@@ -11236,11 +11230,11 @@
         <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>196</v>
@@ -11263,7 +11257,7 @@
         <v>191</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>196</v>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="210">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -2941,6 +2941,13 @@
     <t>小野寺</t>
     <rPh sb="0" eb="3">
       <t>オノデラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差し替え前</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2990,7 +2997,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3006,6 +3013,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3100,7 +3113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3174,6 +3187,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6091,12 +6113,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6762,9 +6781,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7494,8 +7511,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7506,6 +7523,8 @@
     <col min="4" max="4" width="45.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
@@ -7516,6 +7535,13 @@
         <v>59</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H2" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -7538,6 +7564,15 @@
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
@@ -7550,13 +7585,16 @@
         <v>50</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="10">
+      <c r="J4" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -7571,13 +7609,16 @@
         <v>162</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="10">
+      <c r="J5" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -7594,13 +7635,16 @@
       <c r="D6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="10">
+      <c r="J6" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -7617,13 +7661,16 @@
       <c r="D7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="10">
+      <c r="J7" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -7638,18 +7685,18 @@
         <v>151</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="10">
+      <c r="J8" s="27">
         <v>44588</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -7664,18 +7711,18 @@
         <v>153</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="10">
+      <c r="J9" s="27">
         <v>44588</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
@@ -7690,18 +7737,18 @@
         <v>155</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="10">
+      <c r="J10" s="27">
         <v>44588</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
@@ -7716,18 +7763,18 @@
         <v>61</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="10">
+      <c r="J11" s="27">
         <v>44588</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -7742,18 +7789,18 @@
         <v>63</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="10">
+      <c r="J12" s="27">
         <v>44588</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -7768,18 +7815,18 @@
         <v>157</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="10">
+      <c r="J13" s="27">
         <v>44588</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
@@ -7794,18 +7841,18 @@
         <v>159</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="10">
+      <c r="J14" s="27">
         <v>44588</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
@@ -7822,18 +7869,18 @@
       <c r="D15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G15" s="10">
+      <c r="J15" s="27">
         <v>44588</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
@@ -7847,9 +7894,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
@@ -7863,9 +7910,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
@@ -7879,9 +7926,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
@@ -7895,9 +7942,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -7911,9 +7958,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -7927,9 +7974,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -7943,9 +7990,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
@@ -7959,9 +8006,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
@@ -7975,9 +8022,9 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
@@ -7991,6 +8038,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
@@ -8002,9 +8052,9 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
@@ -8018,9 +8068,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
@@ -8034,9 +8084,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
@@ -8050,6 +8100,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
@@ -8061,6 +8114,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
@@ -8072,6 +8128,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
@@ -8083,8 +8142,11 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -8094,8 +8156,11 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -8105,8 +8170,11 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -8116,8 +8184,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -8127,8 +8198,11 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -8138,8 +8212,11 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -8149,8 +8226,11 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -8160,8 +8240,11 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -8171,8 +8254,11 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -8182,8 +8268,11 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -8193,8 +8282,11 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -8204,8 +8296,11 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -8215,6 +8310,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="10"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8228,8 +8326,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8240,6 +8338,8 @@
     <col min="4" max="4" width="45.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
@@ -8247,6 +8347,13 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H2" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -8269,6 +8376,15 @@
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
@@ -8281,13 +8397,16 @@
         <v>50</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="10">
+      <c r="J4" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -8302,13 +8421,16 @@
         <v>147</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="10">
+      <c r="J5" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -8325,13 +8447,16 @@
       <c r="D6" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="10">
+      <c r="J6" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -8348,13 +8473,16 @@
       <c r="D7" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="10">
+      <c r="J7" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -8369,18 +8497,18 @@
         <v>151</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="10">
+      <c r="J8" s="27">
         <v>44588</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -8395,18 +8523,18 @@
         <v>153</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="10">
+      <c r="J9" s="27">
         <v>44588</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
@@ -8421,18 +8549,18 @@
         <v>155</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="10">
+      <c r="J10" s="27">
         <v>44588</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
@@ -8447,18 +8575,18 @@
         <v>61</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="10">
+      <c r="J11" s="27">
         <v>44588</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -8473,18 +8601,18 @@
         <v>63</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="10">
+      <c r="J12" s="27">
         <v>44588</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -8499,18 +8627,18 @@
         <v>157</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="10">
+      <c r="J13" s="27">
         <v>44588</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
@@ -8525,18 +8653,18 @@
         <v>159</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="10">
+      <c r="J14" s="27">
         <v>44588</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
@@ -8553,18 +8681,18 @@
       <c r="D15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G15" s="10">
+      <c r="J15" s="27">
         <v>44588</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
@@ -8578,9 +8706,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
@@ -8594,9 +8722,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
@@ -8610,9 +8738,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
@@ -8626,9 +8754,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -8642,9 +8770,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -8658,9 +8786,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -8674,9 +8802,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
@@ -8690,9 +8818,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
@@ -8706,9 +8834,9 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
@@ -8722,6 +8850,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
@@ -8733,9 +8864,9 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
@@ -8749,9 +8880,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
@@ -8765,9 +8896,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
@@ -8781,6 +8912,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
@@ -8792,6 +8926,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
@@ -8803,6 +8940,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
@@ -8814,8 +8954,11 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -8825,8 +8968,11 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -8836,8 +8982,11 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -8847,8 +8996,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -8858,8 +9010,11 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -8869,8 +9024,11 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -8880,8 +9038,11 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -8891,8 +9052,11 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -8902,8 +9066,11 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -8913,8 +9080,11 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -8924,8 +9094,11 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -8935,8 +9108,11 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -8946,6 +9122,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="10"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8960,7 +9139,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8971,6 +9150,8 @@
     <col min="4" max="4" width="45.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
@@ -8978,6 +9159,13 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H2" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -9000,6 +9188,15 @@
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
@@ -9012,13 +9209,16 @@
         <v>50</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="10">
+      <c r="J4" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -9033,13 +9233,16 @@
         <v>147</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="10">
+      <c r="J5" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -9056,13 +9259,16 @@
       <c r="D6" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="10">
+      <c r="J6" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -9079,13 +9285,16 @@
       <c r="D7" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="10">
+      <c r="J7" s="27">
         <v>44588</v>
       </c>
     </row>
@@ -9100,18 +9309,18 @@
         <v>151</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="10">
+      <c r="J8" s="27">
         <v>44588</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -9126,18 +9335,18 @@
         <v>153</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="10">
+      <c r="J9" s="27">
         <v>44588</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
@@ -9152,18 +9361,18 @@
         <v>155</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="10">
+      <c r="J10" s="27">
         <v>44588</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
@@ -9178,18 +9387,18 @@
         <v>61</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="10">
+      <c r="J11" s="27">
         <v>44588</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -9204,18 +9413,18 @@
         <v>63</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="10">
+      <c r="J12" s="27">
         <v>44588</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -9230,18 +9439,18 @@
         <v>157</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="10">
+      <c r="J13" s="27">
         <v>44588</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
@@ -9256,18 +9465,18 @@
         <v>159</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="10">
+      <c r="J14" s="27">
         <v>44588</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
@@ -9284,18 +9493,18 @@
       <c r="D15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G15" s="10">
+      <c r="J15" s="27">
         <v>44588</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
@@ -9309,9 +9518,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
@@ -9325,9 +9534,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
@@ -9341,9 +9550,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
@@ -9357,9 +9566,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -9373,9 +9582,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -9389,9 +9598,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -9405,9 +9614,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
@@ -9421,9 +9630,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
@@ -9437,9 +9646,9 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
@@ -9453,6 +9662,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
@@ -9464,9 +9676,9 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
@@ -9480,9 +9692,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
@@ -9496,9 +9708,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
@@ -9512,6 +9724,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
@@ -9523,6 +9738,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
@@ -9534,6 +9752,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
@@ -9545,8 +9766,11 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -9556,8 +9780,11 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -9567,8 +9794,11 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -9578,8 +9808,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -9589,8 +9822,11 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -9600,8 +9836,11 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -9611,8 +9850,11 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -9622,8 +9864,11 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -9633,8 +9878,11 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -9644,8 +9892,11 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -9655,8 +9906,11 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -9666,8 +9920,11 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -9677,6 +9934,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="10"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="214">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -2083,74 +2083,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確定ボタンを押した際に、メニュー画面に戻りメニュー画面に、モーダル画面で確定した商品の画像とその商品名、注文数,.、取消ボタンが表示されていることを確認
-数量ボタンが選択されていない場合、モーダル画面にエラーメッセージを表示</t>
-    <rPh sb="0" eb="2">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>スウリョウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モーダル画面（戻る）</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -2948,6 +2880,126 @@
     <t>差し替え前</t>
     <rPh sb="0" eb="1">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菅野</t>
+    <rPh sb="0" eb="2">
+      <t>スガノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でdrink.phpにアクセスをしてもdrink.phpは表示されず、ログイン画面のindex.phpに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態を作るため、一度error.phpに直接アクセスすると非ログイン状態となる。その直後drink.phpにアクセスしてみる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定ボタンを押した際に、メニュー画面に戻りメニュー画面に、モーダル画面で確定した商品の画像とその商品名、金額、注文数,.、取消ボタンが表示されていることを確認
+数量ボタンは、デフォルトで1が選択されている</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3539,10 +3591,10 @@
         <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="10">
         <v>44588</v>
@@ -3559,13 +3611,13 @@
         <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G5" s="10">
         <v>44588</v>
@@ -3583,10 +3635,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G6" s="10">
         <v>44588</v>
@@ -3606,10 +3658,10 @@
         <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G7" s="10">
         <v>44588</v>
@@ -3634,10 +3686,10 @@
         <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G8" s="10">
         <v>44588</v>
@@ -3662,10 +3714,10 @@
         <v>120</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G9" s="10">
         <v>44588</v>
@@ -3687,13 +3739,13 @@
         <v>122</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G10" s="10">
         <v>44588</v>
@@ -3715,13 +3767,13 @@
         <v>124</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G11" s="10">
         <v>44588</v>
@@ -3746,10 +3798,10 @@
         <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G12" s="10">
         <v>44588</v>
@@ -3771,13 +3823,13 @@
         <v>128</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="1"/>
@@ -4250,10 +4302,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="10">
         <v>44588</v>
@@ -4271,10 +4323,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G5" s="10">
         <v>44588</v>
@@ -4285,19 +4337,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G6" s="10">
         <v>44588</v>
@@ -5434,7 +5486,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5474,10 +5526,10 @@
         <v>129</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="10">
         <v>44588</v>
@@ -5494,13 +5546,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G5" s="10">
         <v>44588</v>
@@ -5517,13 +5569,13 @@
         <v>40</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G6" s="10">
         <v>44588</v>
@@ -5541,10 +5593,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G7" s="10">
         <v>44588</v>
@@ -5569,10 +5621,10 @@
         <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G8" s="10">
         <v>44588</v>
@@ -5597,10 +5649,10 @@
         <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G9" s="10">
         <v>44588</v>
@@ -5625,10 +5677,10 @@
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G10" s="10">
         <v>44588</v>
@@ -5651,10 +5703,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G11" s="10">
         <v>44588</v>
@@ -5670,19 +5722,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G12" s="10">
         <v>44588</v>
@@ -6171,13 +6223,13 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="10">
         <v>44588</v>
@@ -6194,13 +6246,13 @@
         <v>45</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="21">
         <v>44588</v>
@@ -6220,10 +6272,10 @@
         <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="10">
         <v>44588</v>
@@ -6243,10 +6295,10 @@
         <v>143</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="10">
         <v>44588</v>
@@ -6268,13 +6320,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="10">
         <v>44588</v>
@@ -6290,19 +6342,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="10">
         <v>44588</v>
@@ -6841,10 +6893,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="10">
         <v>44588</v>
@@ -6858,14 +6910,14 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="10">
         <v>44588</v>
@@ -6883,10 +6935,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="10">
         <v>44588</v>
@@ -6904,10 +6956,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="10">
         <v>44588</v>
@@ -6930,10 +6982,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="10">
         <v>44588</v>
@@ -6949,17 +7001,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="G9" s="21">
         <v>44588</v>
@@ -6975,17 +7027,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="21">
         <v>44588</v>
@@ -7008,10 +7060,10 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G11" s="21">
         <v>44588</v>
@@ -7033,13 +7085,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G12" s="10">
         <v>44588</v>
@@ -7055,17 +7107,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G13" s="10">
         <v>44588</v>
@@ -7081,19 +7133,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G14" s="10">
         <v>44588</v>
@@ -7511,8 +7563,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7537,7 +7589,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H2" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
@@ -7585,14 +7637,20 @@
         <v>50</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44589</v>
+      </c>
       <c r="H4" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J4" s="27">
         <v>44588</v>
@@ -7606,17 +7664,23 @@
         <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44589</v>
+      </c>
       <c r="H5" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J5" s="27">
         <v>44588</v>
@@ -7633,16 +7697,22 @@
         <v>149</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+        <v>171</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44589</v>
+      </c>
       <c r="H6" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J6" s="27">
         <v>44588</v>
@@ -7653,28 +7723,34 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44589</v>
+      </c>
       <c r="H7" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J7" s="27">
         <v>44588</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -7682,17 +7758,23 @@
         <v>150</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44589</v>
+      </c>
       <c r="H8" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J8" s="27">
         <v>44588</v>
@@ -7705,20 +7787,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44589</v>
+      </c>
       <c r="H9" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J9" s="27">
         <v>44588</v>
@@ -7731,20 +7819,26 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44589</v>
+      </c>
       <c r="H10" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J10" s="27">
         <v>44588</v>
@@ -7763,14 +7857,20 @@
         <v>61</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44589</v>
+      </c>
       <c r="H11" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J11" s="27">
         <v>44588</v>
@@ -7789,14 +7889,20 @@
         <v>63</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44589</v>
+      </c>
       <c r="H12" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J12" s="27">
         <v>44588</v>
@@ -7809,20 +7915,26 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44589</v>
+      </c>
       <c r="H13" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J13" s="27">
         <v>44588</v>
@@ -7835,20 +7947,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44589</v>
+      </c>
       <c r="H14" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J14" s="27">
         <v>44588</v>
@@ -7861,22 +7979,28 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44589</v>
+      </c>
       <c r="H15" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J15" s="27">
         <v>44588</v>
@@ -8326,8 +8450,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8349,7 +8473,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H2" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
@@ -8397,14 +8521,20 @@
         <v>50</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44589</v>
+      </c>
       <c r="H4" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J4" s="27">
         <v>44588</v>
@@ -8422,13 +8552,17 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44589</v>
+      </c>
       <c r="H5" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J5" s="27">
         <v>44588</v>
@@ -8445,16 +8579,22 @@
         <v>149</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44589</v>
+      </c>
       <c r="H6" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J6" s="27">
         <v>44588</v>
@@ -8465,28 +8605,34 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44589</v>
+      </c>
       <c r="H7" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J7" s="27">
         <v>44588</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -8494,17 +8640,23 @@
         <v>150</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44589</v>
+      </c>
       <c r="H8" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J8" s="27">
         <v>44588</v>
@@ -8517,20 +8669,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44589</v>
+      </c>
       <c r="H9" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J9" s="27">
         <v>44588</v>
@@ -8543,20 +8701,26 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44589</v>
+      </c>
       <c r="H10" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J10" s="27">
         <v>44588</v>
@@ -8575,14 +8739,20 @@
         <v>61</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44589</v>
+      </c>
       <c r="H11" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J11" s="27">
         <v>44588</v>
@@ -8601,14 +8771,20 @@
         <v>63</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44589</v>
+      </c>
       <c r="H12" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J12" s="27">
         <v>44588</v>
@@ -8621,20 +8797,26 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44589</v>
+      </c>
       <c r="H13" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J13" s="27">
         <v>44588</v>
@@ -8647,20 +8829,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44589</v>
+      </c>
       <c r="H14" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J14" s="27">
         <v>44588</v>
@@ -8673,22 +8861,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+        <v>212</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44589</v>
+      </c>
       <c r="H15" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J15" s="27">
         <v>44588</v>
@@ -9138,8 +9332,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9161,7 +9355,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H2" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
@@ -9209,14 +9403,20 @@
         <v>50</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44589</v>
+      </c>
       <c r="H4" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J4" s="27">
         <v>44588</v>
@@ -9233,14 +9433,20 @@
         <v>147</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44589</v>
+      </c>
       <c r="H5" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J5" s="27">
         <v>44588</v>
@@ -9257,16 +9463,22 @@
         <v>149</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44589</v>
+      </c>
       <c r="H6" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J6" s="27">
         <v>44588</v>
@@ -9277,28 +9489,34 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44589</v>
+      </c>
       <c r="H7" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J7" s="27">
         <v>44588</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -9306,17 +9524,23 @@
         <v>150</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44589</v>
+      </c>
       <c r="H8" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J8" s="27">
         <v>44588</v>
@@ -9329,20 +9553,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44589</v>
+      </c>
       <c r="H9" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J9" s="27">
         <v>44588</v>
@@ -9355,20 +9585,26 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44589</v>
+      </c>
       <c r="H10" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J10" s="27">
         <v>44588</v>
@@ -9387,14 +9623,20 @@
         <v>61</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44589</v>
+      </c>
       <c r="H11" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J11" s="27">
         <v>44588</v>
@@ -9413,14 +9655,20 @@
         <v>63</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44589</v>
+      </c>
       <c r="H12" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J12" s="27">
         <v>44588</v>
@@ -9433,20 +9681,26 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44589</v>
+      </c>
       <c r="H13" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J13" s="27">
         <v>44588</v>
@@ -9459,20 +9713,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44589</v>
+      </c>
       <c r="H14" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J14" s="27">
         <v>44588</v>
@@ -9485,22 +9745,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44589</v>
+      </c>
       <c r="H15" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J15" s="27">
         <v>44588</v>
@@ -9969,7 +10235,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -10007,10 +10273,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="10">
         <v>44588</v>
@@ -10028,10 +10294,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="10">
         <v>44588</v>
@@ -10626,10 +10892,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="10">
         <v>44588</v>
@@ -10647,10 +10913,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="10">
         <v>44588</v>
@@ -10670,10 +10936,10 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="10">
         <v>44588</v>
@@ -10691,10 +10957,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="10">
         <v>44588</v>
@@ -10717,10 +10983,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="10">
         <v>44588</v>
@@ -10745,10 +11011,10 @@
         <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="10">
         <v>44588</v>
@@ -10771,10 +11037,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="10">
         <v>44588</v>
@@ -10797,10 +11063,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G11" s="10">
         <v>44588</v>
@@ -10819,10 +11085,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="10">
         <v>44588</v>
@@ -10847,10 +11113,10 @@
         <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="10">
         <v>44588</v>
@@ -10873,10 +11139,10 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="10">
         <v>44588</v>
@@ -10901,10 +11167,10 @@
         <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15" s="10">
         <v>44588</v>
@@ -10927,10 +11193,10 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" s="10">
         <v>44588</v>
@@ -10955,10 +11221,10 @@
         <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G17" s="10">
         <v>44588</v>
@@ -10981,10 +11247,10 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" s="10">
         <v>44588</v>
@@ -11009,10 +11275,10 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="10">
         <v>44588</v>
@@ -11035,10 +11301,10 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="10">
         <v>44588</v>
@@ -11063,10 +11329,10 @@
         <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" s="10">
         <v>44588</v>
@@ -11089,10 +11355,10 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="10">
         <v>44588</v>
@@ -11111,10 +11377,10 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="10">
         <v>44588</v>
@@ -11139,10 +11405,10 @@
         <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="10">
         <v>44588</v>
@@ -11160,10 +11426,10 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G25" s="10">
         <v>44588</v>
@@ -11188,10 +11454,10 @@
         <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="10">
         <v>44588</v>
@@ -11214,10 +11480,10 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" s="10">
         <v>44588</v>
@@ -11242,10 +11508,10 @@
         <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="10">
         <v>44588</v>
@@ -11263,10 +11529,10 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="10">
         <v>44588</v>
@@ -11286,10 +11552,10 @@
         <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" s="10">
         <v>44588</v>
@@ -11307,10 +11573,10 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="10">
         <v>44588</v>
@@ -11330,10 +11596,10 @@
         <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" s="10">
         <v>44588</v>
@@ -11351,10 +11617,10 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" s="10">
         <v>44588</v>
@@ -11368,10 +11634,10 @@
       <c r="C34" s="8"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" s="10">
         <v>44588</v>
@@ -11391,10 +11657,10 @@
         <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" s="10">
         <v>44588</v>
@@ -11412,10 +11678,10 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G36" s="10">
         <v>44588</v>
@@ -11435,10 +11701,10 @@
         <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G37" s="10">
         <v>44588</v>
@@ -11456,10 +11722,10 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="10">
         <v>44588</v>
@@ -11473,10 +11739,10 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G39" s="10">
         <v>44588</v>
@@ -11490,14 +11756,14 @@
         <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" s="10">
         <v>44588</v>
@@ -11508,19 +11774,19 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G41" s="10">
         <v>44588</v>

--- a/テスト仕様書/テスト仕様書_STEP1.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（index.php）" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="214">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -7563,7 +7563,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -8450,8 +8450,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8551,7 +8551,9 @@
         <v>147</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>210</v>
       </c>
@@ -9332,7 +9334,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
